--- a/BukuStuff/Diagram/Dodleh.xlsx
+++ b/BukuStuff/Diagram/Dodleh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\TAGaming\BukuStuff\Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62667093-7B5C-4AA3-AF51-0BE0A5C1FA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFDF70-E845-4986-8104-587452FB6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{D60A3887-9EB0-4C25-AE85-6EE7ECDD4A1F}"/>
   </bookViews>
@@ -263,11 +263,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,9 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -340,7 +334,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,11 +358,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -669,386 +700,2317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A72FE7-E1A4-43FA-9B8A-9DBF00470E21}">
-  <dimension ref="H10:V37"/>
+  <dimension ref="H1:BH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="W36" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="25" max="62" width="3.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="8:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+    </row>
+    <row r="2" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+    </row>
+    <row r="3" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+    </row>
+    <row r="4" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+    </row>
+    <row r="5" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+    </row>
+    <row r="6" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+    </row>
+    <row r="7" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+    </row>
+    <row r="8" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+    </row>
+    <row r="9" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+    </row>
+    <row r="10" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="H10" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+    </row>
+    <row r="11" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+    </row>
+    <row r="12" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H12" s="1">
         <v>12</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>-24</v>
       </c>
       <c r="K12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+    </row>
+    <row r="13" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+    </row>
+    <row r="14" spans="8:60" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H15" s="3">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+    </row>
+    <row r="15" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
         <v>12</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>5</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="6"/>
-    </row>
-    <row r="16" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H16" s="3">
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+    </row>
+    <row r="16" spans="8:60" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
         <v>-24</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>8</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="14">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="15">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="9"/>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="12">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="15">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="12">
-        <v>0</v>
-      </c>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M20" s="14">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="15">
-        <v>0</v>
-      </c>
-      <c r="R20" s="12">
-        <v>0</v>
-      </c>
-      <c r="S20" s="12">
-        <v>0</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="12">
-        <v>0</v>
-      </c>
-      <c r="V20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M21" s="14">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="15">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M22" s="14">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="20">
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="7"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+    </row>
+    <row r="17" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M17" s="6"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="10">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="7"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+    </row>
+    <row r="18" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+      <c r="BH18" s="1"/>
+    </row>
+    <row r="19" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+    </row>
+    <row r="20" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+    </row>
+    <row r="21" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+    </row>
+    <row r="22" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="18">
         <v>2</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M23" s="14">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="M24" s="16">
-        <v>0</v>
-      </c>
-      <c r="N24" s="17">
-        <v>0</v>
-      </c>
-      <c r="O24" s="17">
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>0</v>
-      </c>
-      <c r="R24" s="17">
-        <v>0</v>
-      </c>
-      <c r="S24" s="17">
-        <v>0</v>
-      </c>
-      <c r="T24" s="17">
-        <v>0</v>
-      </c>
-      <c r="U24" s="17">
-        <v>0</v>
-      </c>
-      <c r="V24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="26">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+    </row>
+    <row r="23" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+    </row>
+    <row r="24" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+    </row>
+    <row r="25" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+    </row>
+    <row r="26" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+    </row>
+    <row r="27" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+    </row>
+    <row r="28" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+    </row>
+    <row r="29" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+    </row>
+    <row r="30" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+    </row>
+    <row r="31" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+    </row>
+    <row r="32" spans="9:60" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="27" t="s">
+      <c r="M32" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+    </row>
+    <row r="33" spans="9:60" x14ac:dyDescent="0.25">
       <c r="I33" s="1"/>
-      <c r="J33" s="21">
-        <v>1</v>
-      </c>
-      <c r="K33" s="22">
+      <c r="J33" s="19">
+        <v>1</v>
+      </c>
+      <c r="K33" s="20">
         <v>5</v>
       </c>
-      <c r="L33" s="22">
-        <v>1</v>
-      </c>
-      <c r="M33" s="24">
+      <c r="L33" s="20">
+        <v>1</v>
+      </c>
+      <c r="M33" s="22">
         <v>3</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="20">
         <v>3</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="20">
         <v>2</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="20">
         <v>5</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="22">
         <v>4</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="21">
         <v>1</v>
       </c>
       <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+    </row>
+    <row r="34" spans="9:60" x14ac:dyDescent="0.25">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="30"/>
+      <c r="O34" s="31"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+    </row>
+    <row r="35" spans="9:60" x14ac:dyDescent="0.25">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="26" t="s">
+      <c r="N35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="26"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+    </row>
+    <row r="36" spans="9:60" x14ac:dyDescent="0.25">
       <c r="I36" s="1"/>
-      <c r="J36" s="21">
-        <v>1</v>
-      </c>
-      <c r="K36" s="22">
+      <c r="J36" s="19">
+        <v>1</v>
+      </c>
+      <c r="K36" s="20">
         <v>5</v>
       </c>
-      <c r="L36" s="22">
-        <v>1</v>
-      </c>
-      <c r="M36" s="24">
+      <c r="L36" s="20">
+        <v>1</v>
+      </c>
+      <c r="M36" s="22">
         <v>5</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="20">
         <v>3</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O36" s="20">
         <v>2</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="23">
         <v>3</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="Q36" s="20">
         <v>4</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="21">
         <v>1</v>
       </c>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+    </row>
+    <row r="37" spans="9:60" x14ac:dyDescent="0.25">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1060,6 +3022,672 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+    </row>
+    <row r="38" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+    </row>
+    <row r="39" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+    </row>
+    <row r="40" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+    </row>
+    <row r="41" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+    </row>
+    <row r="42" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="24">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+    </row>
+    <row r="43" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+    </row>
+    <row r="44" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+    </row>
+    <row r="45" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="7">
+        <v>1</v>
+      </c>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+    </row>
+    <row r="46" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="26">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="26">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="8">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="26">
+        <v>1</v>
+      </c>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+    </row>
+    <row r="47" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1069,6 +3697,21 @@
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="N35:O35"/>
   </mergeCells>
+  <conditionalFormatting sqref="Y3:BE50">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",Y3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:BF47">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB46">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BukuStuff/Diagram/Dodleh.xlsx
+++ b/BukuStuff/Diagram/Dodleh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\TAGaming\BukuStuff\Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAFDF70-E845-4986-8104-587452FB6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B388A-56A0-41C0-9544-49AAA2E105F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{D60A3887-9EB0-4C25-AE85-6EE7ECDD4A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D60A3887-9EB0-4C25-AE85-6EE7ECDD4A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Width = 2</t>
   </si>
@@ -41,12 +41,21 @@
   <si>
     <t>V</t>
   </si>
+  <si>
+    <t>Swap?</t>
+  </si>
+  <si>
+    <t>Kromosom 1</t>
+  </si>
+  <si>
+    <t>Kromosom 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +63,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +94,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,7 +396,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -392,6 +436,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -700,18 +749,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A72FE7-E1A4-43FA-9B8A-9DBF00470E21}">
-  <dimension ref="H1:BH47"/>
+  <dimension ref="H1:BW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W36" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="BB27" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="BY50" sqref="BY50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="25" max="62" width="3.28515625" customWidth="1"/>
+    <col min="64" max="64" width="12.5703125" customWidth="1"/>
+    <col min="66" max="75" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:60">
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
@@ -749,7 +800,7 @@
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
     </row>
-    <row r="2" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:60">
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -787,7 +838,7 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
     </row>
-    <row r="3" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="8:60">
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -825,7 +876,7 @@
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
     </row>
-    <row r="4" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="8:60">
       <c r="Y4" s="1"/>
       <c r="Z4" s="24">
         <v>1</v>
@@ -903,7 +954,7 @@
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
     </row>
-    <row r="5" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:60">
       <c r="Y5" s="1"/>
       <c r="Z5" s="6">
         <v>1</v>
@@ -981,7 +1032,7 @@
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
-    <row r="6" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="8:60">
       <c r="Y6" s="1"/>
       <c r="Z6" s="6">
         <v>0</v>
@@ -1059,7 +1110,7 @@
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
     </row>
-    <row r="7" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:60">
       <c r="Y7" s="1"/>
       <c r="Z7" s="6">
         <v>1</v>
@@ -1137,7 +1188,7 @@
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
     </row>
-    <row r="8" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:60">
       <c r="Y8" s="1"/>
       <c r="Z8" s="25">
         <v>1</v>
@@ -1215,7 +1266,7 @@
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
     </row>
-    <row r="9" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:60">
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -1253,7 +1304,7 @@
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:60">
       <c r="H10" s="27" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1350,7 @@
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
     </row>
-    <row r="11" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:60">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1341,7 +1392,7 @@
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
     </row>
-    <row r="12" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:60">
       <c r="H12" s="1">
         <v>12</v>
       </c>
@@ -1391,7 +1442,7 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
     </row>
-    <row r="13" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:60">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1433,7 +1484,7 @@
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
     </row>
-    <row r="14" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:60">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1475,7 +1526,7 @@
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
     </row>
-    <row r="15" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:60">
       <c r="H15" s="2">
         <v>12</v>
       </c>
@@ -1541,7 +1592,7 @@
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
     </row>
-    <row r="16" spans="8:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:60">
       <c r="H16" s="2">
         <v>-24</v>
       </c>
@@ -1603,7 +1654,7 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
     </row>
-    <row r="17" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:60">
       <c r="M17" s="6"/>
       <c r="N17" s="1"/>
       <c r="O17" s="10">
@@ -1655,7 +1706,7 @@
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
     </row>
-    <row r="18" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:60">
       <c r="M18" s="12">
         <v>0</v>
       </c>
@@ -1759,7 +1810,7 @@
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
     </row>
-    <row r="19" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:60">
       <c r="M19" s="14">
         <v>0</v>
       </c>
@@ -1816,13 +1867,13 @@
       <c r="AL19" s="6">
         <v>0</v>
       </c>
-      <c r="AM19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="33">
+      <c r="AM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
         <v>0</v>
       </c>
       <c r="AP19" s="7">
@@ -1867,7 +1918,7 @@
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
     </row>
-    <row r="20" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:60">
       <c r="M20" s="12">
         <v>0</v>
       </c>
@@ -1926,13 +1977,13 @@
       <c r="AL20" s="6">
         <v>1</v>
       </c>
-      <c r="AM20" s="33">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="33">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="33">
+      <c r="AM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="1">
         <v>1</v>
       </c>
       <c r="AP20" s="7">
@@ -1977,7 +2028,7 @@
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
     </row>
-    <row r="21" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:60">
       <c r="M21" s="12">
         <v>0</v>
       </c>
@@ -2030,13 +2081,13 @@
       <c r="AL21" s="6">
         <v>0</v>
       </c>
-      <c r="AM21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="33">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="33">
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
         <v>0</v>
       </c>
       <c r="AP21" s="7">
@@ -2081,7 +2132,7 @@
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
     </row>
-    <row r="22" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:60">
       <c r="M22" s="12">
         <v>0</v>
       </c>
@@ -2185,7 +2236,7 @@
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
     </row>
-    <row r="23" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:60">
       <c r="M23" s="12">
         <v>0</v>
       </c>
@@ -2239,7 +2290,7 @@
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
     </row>
-    <row r="24" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:60">
       <c r="M24" s="14">
         <v>0</v>
       </c>
@@ -2337,7 +2388,7 @@
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
     </row>
-    <row r="25" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:60">
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -2405,7 +2456,7 @@
       <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
     </row>
-    <row r="26" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:60">
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -2473,7 +2524,7 @@
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
     </row>
-    <row r="27" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:60">
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
@@ -2541,7 +2592,7 @@
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
     </row>
-    <row r="28" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:60">
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
@@ -2609,7 +2660,7 @@
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
     </row>
-    <row r="29" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:60">
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
@@ -2647,7 +2698,7 @@
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
     </row>
-    <row r="30" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:60">
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -2685,7 +2736,7 @@
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
     </row>
-    <row r="31" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:60">
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -2723,7 +2774,7 @@
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
     </row>
-    <row r="32" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:60">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2774,7 +2825,7 @@
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
     </row>
-    <row r="33" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:75">
       <c r="I33" s="1"/>
       <c r="J33" s="19">
         <v>1</v>
@@ -2840,8 +2891,41 @@
       <c r="BF33" s="1"/>
       <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
-    </row>
-    <row r="34" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BL33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN33" s="33">
+        <v>10</v>
+      </c>
+      <c r="BO33" s="34">
+        <v>7</v>
+      </c>
+      <c r="BP33" s="34">
+        <v>3</v>
+      </c>
+      <c r="BQ33" s="34">
+        <v>2</v>
+      </c>
+      <c r="BR33" s="34">
+        <v>10</v>
+      </c>
+      <c r="BS33" s="34">
+        <v>5</v>
+      </c>
+      <c r="BT33" s="34">
+        <v>2</v>
+      </c>
+      <c r="BU33" s="34">
+        <v>8</v>
+      </c>
+      <c r="BV33" s="34">
+        <v>10</v>
+      </c>
+      <c r="BW33" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="9:75">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2891,8 +2975,41 @@
       <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
-    </row>
-    <row r="35" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BL34" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN34" s="34">
+        <v>7</v>
+      </c>
+      <c r="BO34" s="34">
+        <v>4</v>
+      </c>
+      <c r="BP34" s="34">
+        <v>8</v>
+      </c>
+      <c r="BQ34" s="34">
+        <v>7</v>
+      </c>
+      <c r="BR34" s="34">
+        <v>4</v>
+      </c>
+      <c r="BS34" s="34">
+        <v>3</v>
+      </c>
+      <c r="BT34" s="34">
+        <v>5</v>
+      </c>
+      <c r="BU34" s="34">
+        <v>8</v>
+      </c>
+      <c r="BV34" s="34">
+        <v>8</v>
+      </c>
+      <c r="BW34" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:75">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2942,8 +3059,18 @@
       <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
-    </row>
-    <row r="36" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BN35" s="34"/>
+      <c r="BO35" s="34"/>
+      <c r="BP35" s="34"/>
+      <c r="BQ35" s="34"/>
+      <c r="BR35" s="34"/>
+      <c r="BS35" s="34"/>
+      <c r="BT35" s="34"/>
+      <c r="BU35" s="34"/>
+      <c r="BV35" s="34"/>
+      <c r="BW35" s="34"/>
+    </row>
+    <row r="36" spans="9:75">
       <c r="I36" s="1"/>
       <c r="J36" s="19">
         <v>1</v>
@@ -3009,8 +3136,41 @@
       <c r="BF36" s="1"/>
       <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
-    </row>
-    <row r="37" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BL36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN36" s="36">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="35">
+        <v>1</v>
+      </c>
+      <c r="BP36" s="36">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="35">
+        <v>1</v>
+      </c>
+      <c r="BR36" s="35">
+        <v>1</v>
+      </c>
+      <c r="BS36" s="35">
+        <v>1</v>
+      </c>
+      <c r="BT36" s="35">
+        <v>1</v>
+      </c>
+      <c r="BU36" s="35">
+        <v>1</v>
+      </c>
+      <c r="BV36" s="36">
+        <v>0</v>
+      </c>
+      <c r="BW36" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:75">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3058,8 +3218,18 @@
       <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
-    </row>
-    <row r="38" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BN37" s="34"/>
+      <c r="BO37" s="34"/>
+      <c r="BP37" s="34"/>
+      <c r="BQ37" s="34"/>
+      <c r="BR37" s="34"/>
+      <c r="BS37" s="34"/>
+      <c r="BT37" s="34"/>
+      <c r="BU37" s="34"/>
+      <c r="BV37" s="34"/>
+      <c r="BW37" s="34"/>
+    </row>
+    <row r="38" spans="9:75">
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
@@ -3096,8 +3266,20 @@
       <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
-    </row>
-    <row r="39" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BN38" s="34"/>
+      <c r="BO38" s="34"/>
+      <c r="BP38" s="34"/>
+      <c r="BQ38" s="34"/>
+      <c r="BR38" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS38" s="34"/>
+      <c r="BT38" s="34"/>
+      <c r="BU38" s="34"/>
+      <c r="BV38" s="34"/>
+      <c r="BW38" s="34"/>
+    </row>
+    <row r="39" spans="9:75">
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -3134,8 +3316,18 @@
       <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
-    </row>
-    <row r="40" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BN39" s="34"/>
+      <c r="BO39" s="34"/>
+      <c r="BP39" s="34"/>
+      <c r="BQ39" s="34"/>
+      <c r="BR39" s="34"/>
+      <c r="BS39" s="34"/>
+      <c r="BT39" s="34"/>
+      <c r="BU39" s="34"/>
+      <c r="BV39" s="34"/>
+      <c r="BW39" s="34"/>
+    </row>
+    <row r="40" spans="9:75">
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
@@ -3172,8 +3364,41 @@
       <c r="BF40" s="1"/>
       <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
-    </row>
-    <row r="41" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BL40" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN40" s="33">
+        <v>10</v>
+      </c>
+      <c r="BO40" s="34">
+        <v>4</v>
+      </c>
+      <c r="BP40" s="34">
+        <v>3</v>
+      </c>
+      <c r="BQ40" s="34">
+        <v>7</v>
+      </c>
+      <c r="BR40" s="34">
+        <v>4</v>
+      </c>
+      <c r="BS40" s="34">
+        <v>3</v>
+      </c>
+      <c r="BT40" s="34">
+        <v>5</v>
+      </c>
+      <c r="BU40" s="34">
+        <v>8</v>
+      </c>
+      <c r="BV40" s="34">
+        <v>10</v>
+      </c>
+      <c r="BW40" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="9:75">
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
@@ -3210,8 +3435,41 @@
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
-    </row>
-    <row r="42" spans="9:60" x14ac:dyDescent="0.25">
+      <c r="BL41" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN41" s="34">
+        <v>7</v>
+      </c>
+      <c r="BO41" s="34">
+        <v>7</v>
+      </c>
+      <c r="BP41" s="34">
+        <v>8</v>
+      </c>
+      <c r="BQ41" s="34">
+        <v>2</v>
+      </c>
+      <c r="BR41" s="34">
+        <v>10</v>
+      </c>
+      <c r="BS41" s="34">
+        <v>5</v>
+      </c>
+      <c r="BT41" s="34">
+        <v>2</v>
+      </c>
+      <c r="BU41" s="34">
+        <v>8</v>
+      </c>
+      <c r="BV41" s="34">
+        <v>8</v>
+      </c>
+      <c r="BW41" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:75">
       <c r="Y42" s="1"/>
       <c r="Z42" s="24">
         <v>0</v>
@@ -3299,7 +3557,7 @@
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
     </row>
-    <row r="43" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:75">
       <c r="Y43" s="1"/>
       <c r="Z43" s="6">
         <v>0</v>
@@ -3387,7 +3645,7 @@
       <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
     </row>
-    <row r="44" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:75">
       <c r="Y44" s="1"/>
       <c r="Z44" s="6">
         <v>0</v>
@@ -3475,7 +3733,7 @@
       <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
     </row>
-    <row r="45" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:75">
       <c r="Y45" s="1"/>
       <c r="Z45" s="6">
         <v>0</v>
@@ -3563,7 +3821,7 @@
       <c r="BG45" s="1"/>
       <c r="BH45" s="1"/>
     </row>
-    <row r="46" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:75">
       <c r="Y46" s="1"/>
       <c r="Z46" s="25">
         <v>0</v>
@@ -3651,7 +3909,7 @@
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
     </row>
-    <row r="47" spans="9:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:75">
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
